--- a/images/Presentation/base_hype_model_improvements.xlsx
+++ b/images/Presentation/base_hype_model_improvements.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco\Desktop\WaterMLops\ds-ml-project\images\Presentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EF0299-C048-4362-884D-66D0734D79CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A318B32F-A4BC-4071-A5E8-D6627651865A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{29260E33-AE21-4983-A684-33B69145EC40}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" activeTab="2" xr2:uid="{29260E33-AE21-4983-A684-33B69145EC40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Final" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Base</t>
   </si>
@@ -486,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B63FF84-8876-41B3-A20B-1DA4DA7A1D3C}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +517,9 @@
         <v>14</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3">
+        <v>32.570904283801397</v>
+      </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -693,7 +696,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -894,4 +897,221 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A539E716-83CC-471B-9875-C0517B5A34C5}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3">
+        <v>32.718727448353299</v>
+      </c>
+      <c r="C2" s="3">
+        <v>32.570904283801397</v>
+      </c>
+      <c r="D2">
+        <f>B2-C2</f>
+        <v>0.1478231645519017</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>32.954982359331403</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32.317041080286998</v>
+      </c>
+      <c r="D3">
+        <f>B3-C3</f>
+        <v>0.63794127904440501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>33.783243796145001</v>
+      </c>
+      <c r="C4">
+        <v>33.784851743154803</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="0">B4-C4</f>
+        <v>-1.6079470098020465E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>35.269071102612003</v>
+      </c>
+      <c r="C5">
+        <v>33.514904592886303</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1.7541665097256995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>32.983491481672999</v>
+      </c>
+      <c r="C6">
+        <v>32.490319392967997</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.49317208870500195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>31.025052166942299</v>
+      </c>
+      <c r="C7">
+        <v>31.013358548717399</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>1.1693618224899893E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>35.911129867718401</v>
+      </c>
+      <c r="C8">
+        <v>33.044839419054597</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.8662904486638041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>34.128701804719597</v>
+      </c>
+      <c r="C9">
+        <v>32.683571376891599</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>1.4451304278279977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>34.926524541998198</v>
+      </c>
+      <c r="C10">
+        <v>34.502358026696101</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.42416651530209748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>440.16758951450601</v>
+      </c>
+      <c r="C12">
+        <v>427.07611052675799</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D14" si="1">B12-C12</f>
+        <v>13.091478987748019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.67092462689586596</v>
+      </c>
+      <c r="C13">
+        <v>0.680711997513339</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>-9.7873706174730346E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>20.98</v>
+      </c>
+      <c r="C14">
+        <v>20.67</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0.30999999999999872</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>